--- a/metadata_model_tracking.xlsx
+++ b/metadata_model_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjcuedu-my.sharepoint.com/personal/alejandro_delafuentepinero1_my_jcu_edu_au/Documents/PhD - projects/Ringtail - Mechanistic model - Wet Tropics/Ringtail_WT_Mechanistic_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="826" documentId="8_{03D35861-0F08-A548-BB4E-4998BC1074BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5F327E7-6AD9-4B4B-9FFB-D0C857B30173}"/>
+  <xr:revisionPtr revIDLastSave="827" documentId="8_{03D35861-0F08-A548-BB4E-4998BC1074BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE9E6F0C-F1DF-3247-9B40-D97DF6FAA35F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" xr2:uid="{0BDCDC5A-A3DA-EB45-A218-C336EDF11CDE}"/>
   </bookViews>
@@ -716,9 +716,6 @@
     <t>Here, we assume a physiological constrain imposed by activity, so the animal is not resting anymore. Thus, the animal is exposed to changes in the metabolic rate requirements as well as the exposure to shade, as when foraging can be exposed to open sky, which influences thermoregulation.</t>
   </si>
   <si>
-    <t>Important: here I am just defining the modifications with respect to baseline model (model 1), so if otherwise not indicated, the values remain as above.</t>
-  </si>
-  <si>
     <t>QBASAL * 1.5</t>
   </si>
   <si>
@@ -751,6 +748,9 @@
       </rPr>
       <t>why Nat?</t>
     </r>
+  </si>
+  <si>
+    <t>Important: here I am just defining the modifications with respect to baseline model (model 1), so if not indicated otherwise, the values remain as above.</t>
   </si>
 </sst>
 </file>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BDE8D2-B779-404F-AD1E-501E1DEA84C0}">
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="F48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="107" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A107" s="42" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B107" s="42"/>
       <c r="C107" s="42"/>
@@ -3888,21 +3888,21 @@
         <v>152</v>
       </c>
       <c r="B109" t="s">
+        <v>226</v>
+      </c>
+      <c r="C109" t="s">
         <v>227</v>
-      </c>
-      <c r="C109" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B110">
         <v>30</v>
       </c>
       <c r="C110" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -3913,7 +3913,7 @@
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -3924,7 +3924,7 @@
         <v>6</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -3932,10 +3932,10 @@
         <v>210</v>
       </c>
       <c r="B113" t="s">
+        <v>230</v>
+      </c>
+      <c r="C113" s="14" t="s">
         <v>231</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
